--- a/archivos/FullStack.xlsx
+++ b/archivos/FullStack.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\108\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Diplomado\FullstackDiplomado\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3637C0-B5F1-4765-9340-689F2166849F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2306B9C-4DED-4293-8A5E-5D53BEA4F02C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{87DE3053-6E27-4111-95D3-6798F6023CBA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{87DE3053-6E27-4111-95D3-6798F6023CBA}"/>
   </bookViews>
   <sheets>
     <sheet name="GIT" sheetId="1" r:id="rId1"/>
     <sheet name="HTML" sheetId="2" r:id="rId2"/>
     <sheet name="Css" sheetId="4" r:id="rId3"/>
     <sheet name="VsCode" sheetId="5" r:id="rId4"/>
-    <sheet name="Js" sheetId="3" r:id="rId5"/>
+    <sheet name="Javascript" sheetId="6" r:id="rId5"/>
+    <sheet name="JavaScriptEjemplos" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
   <si>
     <t>Git clone</t>
   </si>
@@ -451,6 +452,320 @@
   <si>
     <t>https://materializecss.com/</t>
   </si>
+  <si>
+    <t>Comando/ Concepto</t>
+  </si>
+  <si>
+    <t>Tipo de datos</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t> Cadenas de texto.</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t> Valores numéricos.</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t> Representa una entidad lógica y puede tener dos valores: true y false.</t>
+  </si>
+  <si>
+    <t>null </t>
+  </si>
+  <si>
+    <t>Es un valor asignado tiene el valor de “no valor”.</t>
+  </si>
+  <si>
+    <t>undefined </t>
+  </si>
+  <si>
+    <t>Una variable a la que no se le ha asignado ningún valor tiene el valor undefined.</t>
+  </si>
+  <si>
+    <t>Symbol </t>
+  </si>
+  <si>
+    <t>Nuevo en ECMAScript 2015.</t>
+  </si>
+  <si>
+    <t>Object </t>
+  </si>
+  <si>
+    <t>Un valor en memoria al que podemos acceder por un identificador.</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arreglo o conjunto de tipos de datos </t>
+  </si>
+  <si>
+    <t>Let</t>
+  </si>
+  <si>
+    <t>Const</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>el valor no cambia</t>
+  </si>
+  <si>
+    <t>https://codepen.io/pen/</t>
+  </si>
+  <si>
+    <t>Bloque {}</t>
+  </si>
+  <si>
+    <t>No usarla</t>
+  </si>
+  <si>
+    <t>let +  tipo de dato(no es necesario) + nombre de la variable  + :  + Valor</t>
+  </si>
+  <si>
+    <t>const +  tipo de dato(no es necesario)  + nombre de la variable  + :  + Valor</t>
+  </si>
+  <si>
+    <t>var +  tipo de dato (no es necesario) + nombre de la variable  + :  + Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const x = 12 
+const y= 20
+let Result = x+y 
+console.log(Result)
+Result = 3333332323233
+Result= 'prueba de let sin declarar '
+//alert(Result)
+console.log(Result)
+</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Ejercicio 1 , declaracion de variables  sin tipo de datos</t>
+  </si>
+  <si>
+    <t>Ejercicio 2 , declaracion de variables  sin tipo de datos haciendo operaciones aritmeticas basicas</t>
+  </si>
+  <si>
+    <t>console.log</t>
+  </si>
+  <si>
+    <t>imprime en consola</t>
+  </si>
+  <si>
+    <t>console.log('lo que se desea imprimir en consola')</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>pinta popup con la alerta</t>
+  </si>
+  <si>
+    <t>alert('lo que se desea pintar en el popup')</t>
+  </si>
+  <si>
+    <t>Declaracion de Variables</t>
+  </si>
+  <si>
+    <t>const x = 10
+const y = 20
+let Resta = x-y
+let Suma = x+ y 
+let Division = y/x
+let Multiplicacion = y*x 
+console.log('Valor de  x:' + x )
+console.log('Valor de  y:' + y)
+console.log('Resultado de las suma:' + Suma )
+console.log('Resultado de las resta:' , Resta )
+console.log(`Resultado de las multiplicacion:${Multiplicacion}` )
+console.log('Resultado de las division:'+ Division )</t>
+  </si>
+  <si>
+    <t>const x = null
+const y = 20
+let Resta = x-y
+let Suma = x+ y 
+let Division = y/x
+let Multiplicacion = y*x 
+console.log('Valor de  x:' + x )
+console.log('Valor de  y:' + y)
+console.log('Resultado de las suma:' + Suma )
+console.log('Resultado de las resta:' , Resta )
+console.log(`Resultado de las multiplicacion:${Multiplicacion}` )
+console.log('Resultado de las division:'+ Division )</t>
+  </si>
+  <si>
+    <t>const mayorQ =12 &gt; 3
+console.log(mayorQ)
+const mayorIQ =12&gt;= 3
+console.log(mayorQ)
+const igualQ =12=="12"
+console.log(mayorQ)
+const tresIgualQ =12==="12"
+console.log(mayorQ)
+const menorQ =12 &lt; 3
+console.log(mayorQ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const text ='Sebastian'
+const longText = text.length 
+console.log(longText)
+const persona ={
+  name: 'Natalia',
+  lastname: 'Arismendi'
+}
+console.log(persona.name)
+console.log(persona.lastname)
+console.log(`${persona.name} ${persona.lastname} `)
+console.log(persona)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creacion de de objeto </t>
+  </si>
+  <si>
+    <t>console.log(`${}`)</t>
+  </si>
+  <si>
+    <t>console.log( text1, text2)</t>
+  </si>
+  <si>
+    <t>const arrNombre= ['Natalia', 'Arismendi', 2,3,true, false, undefined, null ,{name:'Natalia', lastname:'Arismendi'} ]
+console.log(arrNombre[0])
+console.log(arrNombre[8] )
+console.log(arrNombre[8].name )
+arrNombre.push("Sebastian")
+console.log(arrNombre[9] )</t>
+  </si>
+  <si>
+    <t>!==</t>
+  </si>
+  <si>
+    <t>const x = 12
+const y = 20
+if(x&gt;y)
+{
+  console.log(x, " es mayor " , y)
+}else if(x !== y)
+{
+  console.log(x, ' es diferente ' , y )  
+}
+else
+{
+  console.log(x, ' es menor ' , y)
+}</t>
+  </si>
+  <si>
+    <t>const a =100
+const b = 100 
+function prueba(num1,num2){
+  return num1 + num2 
+}
+console.log(prueba(a,b))</t>
+  </si>
+  <si>
+    <t>const a = 100
+const b = 100
+function operadores(action) {
+    if (action == 'S') {
+        return suma(a, b);
+        //break;
+    } else if (action == 'R') {
+        return resta(a, b)
+    } else if (action == 'D') {
+        return division(a, b)
+    } else if (action == 'M') {
+        return multiplicacion(a, b)
+    } else {
+        consoles.log('No hay operacion disponible')
+    }
+}
+function operadoresswitch(action) {
+    switch (action) {
+      case 'S':
+            return suma(a, b)
+      case 'R':
+            return resta(a, b)
+      case 'D':
+            return division(a, b)
+      case 'M':
+            return multiplicacion(a, b)
+         defaul:
+            return 0 
+      }
+}
+function resta(num1, num2) {
+    return num1 - num2
+}
+function suma(num1, num2) {
+    return num1 + num2
+}
+function division(num1, num2) {
+    return num1 / num2
+}
+function multiplicacion(num1, num2) {
+    return num1 * num2
+}
+console.log(suma(a, b))
+console.log(resta(a, b))
+console.log(division(a, b))
+console.log(multiplicacion(a, b))
+console.log('Suma ', operadores('S'))
+console.log('Resta ', operadores('R'))
+console.log('Multiplicacion ', operadores('M'))
+console.log('Division ', operadores('D'))
+console.log('Suma switch ', operadoresswitch('S'))
+console.log('Resta switch', operadoresswitch('R'))
+console.log('Multiplicacion switch', operadoresswitch('M'))
+console.log('Division  switch', operadoresswitch('D'))</t>
+  </si>
+  <si>
+    <t>switch(){ case valor:}</t>
+  </si>
+  <si>
+    <t>if(){}else if {} else</t>
+  </si>
+  <si>
+    <t>const Pepe = 24
+const Ana = 32 
+const Luis = 10
+const valorMenor25= 100000
+const valorMayor24=30000
+function valorHerencia(edad)
+{
+  if ( edad &gt;=24  &amp;&amp; edad&lt;25)
+  {
+    return valorMenor25 + valorMayor24;
+  }
+  else if  (edad&gt;24){
+     return valorMayor24
+  }
+  else if  (edad&lt;25){ 
+    return valorMenor25
+  }
+  else 
+  {
+    return 0
+  }
+}
+console.log('Herencia de Pepe ' , valorHerencia(Pepe));
+console.log('Herencia de Ana ' , valorHerencia(Ana));
+console.log('Herencia de Luis ' , valorHerencia(Luis));</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +840,12 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -597,7 +918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -648,12 +969,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -665,13 +992,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -703,12 +1036,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -727,6 +1061,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -745,7 +1080,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -857,6 +1191,190 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Roboto Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -871,27 +1389,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15267654-5A05-4024-9DD8-EE9EE5ABB136}" name="Tabla1" displayName="Tabla1" ref="B2:E13" totalsRowShown="0">
-  <autoFilter ref="B2:E13" xr:uid="{77F7191A-4E0A-4E1E-AB99-A623087EB2A6}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EF78CAD6-120F-47C7-A42B-129C00CEBF38}" name="Comando" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{4D7616FB-97AE-45FB-B411-BC0E7BD849B9}" name="Descripcion " dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{811D2259-96EA-4094-86BF-6383CC927F53}" name="Sintaxis" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{57531473-3479-488E-A440-5E73584B8E45}" name="Columna1" dataDxfId="0">
-      <calculatedColumnFormula>"&lt;tr&gt;&lt;td&gt;" &amp; Tabla1[[#This Row],[Comando]] &amp; "&lt; /td&gt; &lt;td&gt;"  &amp;   Tabla1[[#This Row],[Descripcion ]]&amp; "&lt;/td&gt; &lt;td&gt;" &amp;  Tabla1[[#This Row],[Sintaxis]] &amp; "&lt;/td&gt;
-                                    &lt;/tr&gt;"</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15267654-5A05-4024-9DD8-EE9EE5ABB136}" name="Tabla1" displayName="Tabla1" ref="B2:D13" totalsRowShown="0">
+  <autoFilter ref="B2:D13" xr:uid="{77F7191A-4E0A-4E1E-AB99-A623087EB2A6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EF78CAD6-120F-47C7-A42B-129C00CEBF38}" name="Comando" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{4D7616FB-97AE-45FB-B411-BC0E7BD849B9}" name="Descripcion " dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{811D2259-96EA-4094-86BF-6383CC927F53}" name="Sintaxis" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F41668F-5217-459D-A841-1F3DCDE2A776}" name="Tabla2" displayName="Tabla2" ref="F2:G3" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F41668F-5217-459D-A841-1F3DCDE2A776}" name="Tabla2" displayName="Tabla2" ref="F2:G3" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="F2:G3" xr:uid="{A2ACD30B-BA85-42D6-BDC1-DCEB5E840404}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0BE9CCD9-222F-4A35-AA27-B3B155A868E2}" name="Instrucciones " dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{850C2E28-190E-4A3A-8229-F40D18939543}" name="Sintaxis" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{0BE9CCD9-222F-4A35-AA27-B3B155A868E2}" name="Instrucciones " dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{850C2E28-190E-4A3A-8229-F40D18939543}" name="Sintaxis" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -909,13 +1423,60 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6F86530D-4CC6-49F1-B224-222EE6A16BC4}" name="Tabla25" displayName="Tabla25" ref="E2:F3" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6F86530D-4CC6-49F1-B224-222EE6A16BC4}" name="Tabla25" displayName="Tabla25" ref="E2:F3" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="E2:F3" xr:uid="{11A4E117-8474-4E55-939A-19BCF46B8E7E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{063C689B-E630-4E24-B298-F11DDE567DC1}" name="Instrucciones " dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D4F336E3-A8C7-44D3-A799-69F34E26EBE5}" name="Sintaxis" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{063C689B-E630-4E24-B298-F11DDE567DC1}" name="Instrucciones " dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D4F336E3-A8C7-44D3-A799-69F34E26EBE5}" name="Sintaxis" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8A1BFD06-5E3E-4892-AE91-3A6853493DAD}" name="Tabla16" displayName="Tabla16" ref="B3:D14" totalsRowShown="0">
+  <autoFilter ref="B3:D14" xr:uid="{77F7191A-4E0A-4E1E-AB99-A623087EB2A6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B2F21DAC-AB83-4844-A265-AF0430EB72C9}" name="Comando/ Concepto" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{862D56CD-E340-4E6E-AA06-6E5434D4DF9B}" name="Descripcion " dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{3C9BA3F3-68B9-4BA4-9A19-D13F16000CFC}" name="Sintaxis" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CA9946C2-2B09-432F-A628-BBA65A33034D}" name="Tabla27" displayName="Tabla27" ref="F3:H11" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="F3:H11" xr:uid="{A2ACD30B-BA85-42D6-BDC1-DCEB5E840404}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9235585B-A0C1-44BA-988B-3296FEA6B9E6}" name="Tipo de datos" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9FDD3A51-4E16-47B7-AE9A-4AABB7F5EAE9}" name="Columna1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E478FDEF-9CC4-4518-9399-30D7AD06CB87}" name="Sintaxis" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{67B1461D-3926-4FB5-A534-15B5A215C103}" name="Tabla278" displayName="Tabla278" ref="F14:H22" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="F14:H22" xr:uid="{5C8614C4-EB8C-46FA-A2E2-B8A03535F7FC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{AEC04DCE-26FD-454B-B35A-CDF8BA9F43D3}" name="Declaracion de Variables"/>
+    <tableColumn id="3" xr3:uid="{30896AF1-F19D-4445-B8C2-23A6409C5963}" name="Detalle" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7DFCFE52-A059-40A9-89B5-B7DD1E209978}" name="Sintaxis" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{23B99E34-5AC4-4F7D-8DDB-926193D4EF1D}" name="Tabla8" displayName="Tabla8" ref="B2:C5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B2:C5" xr:uid="{A63F4868-2871-4789-A2B3-6728D6E1666C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8778A0DF-417D-48B8-9C50-B89EB0809DFF}" name="Columna1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{679E94F3-3523-4304-887E-E929D93F20CF}" name="Columna2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1218,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FE7AEB-5A9C-452F-9988-4669A51875B9}">
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1227,8 +1788,8 @@
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="49.7109375" style="1" customWidth="1"/>
     <col min="8" max="9" width="11.42578125" style="1"/>
@@ -1247,9 +1808,7 @@
       <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1267,12 +1826,7 @@
       <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp; Tabla1[[#This Row],[Comando]] &amp; "&lt; /td&gt; &lt;td&gt;"  &amp;   Tabla1[[#This Row],[Descripcion ]]&amp; "&lt;/td&gt; &lt;td&gt;" &amp;  Tabla1[[#This Row],[Sintaxis]] &amp; "&lt;/td&gt;
-                                    &lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Git clone&lt; /td&gt; &lt;td&gt;Git clone es un comando para descargarte el código fuente existente desde un repositorio remoto &lt;/td&gt; &lt;td&gt;git clone &lt;https://link-con-nombre-del-repositorio&gt;&lt;/td&gt;
-                                    &lt;/tr&gt;</v>
-      </c>
+      <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1290,14 +1844,7 @@
       <c r="D4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp; Tabla1[[#This Row],[Comando]] &amp; "&lt; /td&gt; &lt;td&gt;"  &amp;   Tabla1[[#This Row],[Descripcion ]]&amp; "&lt;/td&gt; &lt;td&gt;" &amp;  Tabla1[[#This Row],[Sintaxis]] &amp; "&lt;/td&gt;
-                                    &lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Git branch&lt; /td&gt; &lt;td&gt;Podemos usar el comando git branch para crearlas, listarlas y eliminarlas.&lt;/td&gt; &lt;td&gt;listar  -&gt;  git branch   
-crear -&gt; git branch &lt;nombre-de-la-rama&gt;
-eliminar -&gt; git branch -d&lt;/td&gt;
-                                    &lt;/tr&gt;</v>
-      </c>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="2:8" ht="60">
       <c r="B5" s="5" t="s">
@@ -1309,13 +1856,7 @@
       <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp; Tabla1[[#This Row],[Comando]] &amp; "&lt; /td&gt; &lt;td&gt;"  &amp;   Tabla1[[#This Row],[Descripcion ]]&amp; "&lt;/td&gt; &lt;td&gt;" &amp;  Tabla1[[#This Row],[Sintaxis]] &amp; "&lt;/td&gt;
-                                    &lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Git checkout&lt; /td&gt; &lt;td&gt;Para trabajar en una rama, primero tienes que cambiarte a ella. Usaremos git checkout principalmente para cambiarte de una rama a otra. También lo podemos usar para chequear archivos y commits.&lt;/td&gt; &lt;td&gt;git checkout &lt;nombre-de-la-rama&gt;
-crea la rama y nos ubica en ella -&gt;  git checkout -b &lt;nombre-de-la-rama&gt;&lt;/td&gt;
-                                    &lt;/tr&gt;</v>
-      </c>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="2:8" ht="30">
       <c r="B6" s="5" t="s">
@@ -1327,12 +1868,7 @@
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp; Tabla1[[#This Row],[Comando]] &amp; "&lt; /td&gt; &lt;td&gt;"  &amp;   Tabla1[[#This Row],[Descripcion ]]&amp; "&lt;/td&gt; &lt;td&gt;" &amp;  Tabla1[[#This Row],[Sintaxis]] &amp; "&lt;/td&gt;
-                                    &lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Git status&lt; /td&gt; &lt;td&gt;El comando de git status nos da toda la información necesaria sobre la rama actual.&lt;/td&gt; &lt;td&gt;git status&lt;/td&gt;
-                                    &lt;/tr&gt;</v>
-      </c>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="45">
       <c r="B7" s="5" t="s">
@@ -1344,14 +1880,7 @@
       <c r="D7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp; Tabla1[[#This Row],[Comando]] &amp; "&lt; /td&gt; &lt;td&gt;"  &amp;   Tabla1[[#This Row],[Descripcion ]]&amp; "&lt;/td&gt; &lt;td&gt;" &amp;  Tabla1[[#This Row],[Sintaxis]] &amp; "&lt;/td&gt;
-                                    &lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Git add&lt; /td&gt; &lt;td&gt;Cuando creamos, modificamos o eliminamos un archivo, estos cambios suceden en local y no se incluirán en el siguiente commit (a menos que cambiemos la configuración).&lt;/td&gt; &lt;td&gt;git add &lt;archivo&gt; 
-git add -A
-git add . &lt;/td&gt;
-                                    &lt;/tr&gt;</v>
-      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="2:8" ht="60">
       <c r="B8" s="5" t="s">
@@ -1363,13 +1892,7 @@
       <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp; Tabla1[[#This Row],[Comando]] &amp; "&lt; /td&gt; &lt;td&gt;"  &amp;   Tabla1[[#This Row],[Descripcion ]]&amp; "&lt;/td&gt; &lt;td&gt;" &amp;  Tabla1[[#This Row],[Sintaxis]] &amp; "&lt;/td&gt;
-                                    &lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Git commit&lt; /td&gt; &lt;td&gt;Una vez que se llega a cierto punto en el desarrollo, queremos guardar nuestros cambios (quizás después de una tarea o asunto específico).  
-Importante: Git commit guarda tus cambios únicamente en local.&lt;/td&gt; &lt;td&gt;git commit -m "mensaje de confirmación"&lt;/td&gt;
-                                    &lt;/tr&gt;</v>
-      </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="45">
       <c r="B9" s="5" t="s">
@@ -1381,12 +1904,7 @@
       <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp; Tabla1[[#This Row],[Comando]] &amp; "&lt; /td&gt; &lt;td&gt;"  &amp;   Tabla1[[#This Row],[Descripcion ]]&amp; "&lt;/td&gt; &lt;td&gt;" &amp;  Tabla1[[#This Row],[Sintaxis]] &amp; "&lt;/td&gt;
-                                    &lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Git push&lt; /td&gt; &lt;td&gt;Después de haber confirmado tus cambios, el siguiente paso que quieres dar es enviar tus cambios al servidor remoto. Git push envía tus commits al repositorio remoto.&lt;/td&gt; &lt;td&gt;git push &lt;nombre-remoto&gt; &lt;nombre-de-tu-rama&gt;&lt;/td&gt;
-                                    &lt;/tr&gt;</v>
-      </c>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:8" ht="90">
       <c r="B10" s="5" t="s">
@@ -1398,12 +1916,7 @@
       <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp; Tabla1[[#This Row],[Comando]] &amp; "&lt; /td&gt; &lt;td&gt;"  &amp;   Tabla1[[#This Row],[Descripcion ]]&amp; "&lt;/td&gt; &lt;td&gt;" &amp;  Tabla1[[#This Row],[Sintaxis]] &amp; "&lt;/td&gt;
-                                    &lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Git pull&lt; /td&gt; &lt;td&gt;El comando git pull se utiliza para recibir actualizaciones del repositorio remoto. Este comando es una combinación del git fetch y del git merge lo cual significa que cundo usemos el git pull recogeremos actualizaciones del repositorio remoto (git fetch) e inmediatamente aplicamos estos últimos cambios en local (git merge).&lt;/td&gt; &lt;td&gt;git pull &lt;nombre-remoto&gt;&lt;/td&gt;
-                                    &lt;/tr&gt;</v>
-      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="75">
       <c r="B11" s="5" t="s">
@@ -1415,13 +1928,7 @@
       <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp; Tabla1[[#This Row],[Comando]] &amp; "&lt; /td&gt; &lt;td&gt;"  &amp;   Tabla1[[#This Row],[Descripcion ]]&amp; "&lt;/td&gt; &lt;td&gt;" &amp;  Tabla1[[#This Row],[Sintaxis]] &amp; "&lt;/td&gt;
-                                    &lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;Git revert&lt; /td&gt; &lt;td&gt;A veces, necesitaremos deshacer los cambios que hemos hecho. Hay varias maneras para deshacer nuestros cambios en local y/o en remoto (dependiendo de lo que necesitemos), pero necesitaremos utilizar cuidadosamente estos comandos para evitar borrados no deseados.&lt;/td&gt; &lt;td&gt;git log -- oneline:
-git revert 3321844&lt;/td&gt;
-                                    &lt;/tr&gt;</v>
-      </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="30">
       <c r="B12" s="8" t="s">
@@ -1431,12 +1938,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="1" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp; Tabla1[[#This Row],[Comando]] &amp; "&lt; /td&gt; &lt;td&gt;"  &amp;   Tabla1[[#This Row],[Descripcion ]]&amp; "&lt;/td&gt; &lt;td&gt;" &amp;  Tabla1[[#This Row],[Sintaxis]] &amp; "&lt;/td&gt;
-                                    &lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;git init&lt; /td&gt; &lt;td&gt;Initializes a new Git repository. If you want to place a project under revision control, this is the first command you need to learn.&lt;/td&gt; &lt;td&gt;&lt;/td&gt;
-                                    &lt;/tr&gt;</v>
-      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="2:8" ht="27">
       <c r="B13" s="8" t="s">
@@ -1448,21 +1950,16 @@
       <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;" &amp; Tabla1[[#This Row],[Comando]] &amp; "&lt; /td&gt; &lt;td&gt;"  &amp;   Tabla1[[#This Row],[Descripcion ]]&amp; "&lt;/td&gt; &lt;td&gt;" &amp;  Tabla1[[#This Row],[Sintaxis]] &amp; "&lt;/td&gt;
-                                    &lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;git remote &lt; /td&gt; &lt;td&gt;saber  el remote del repo &lt;/td&gt; &lt;td&gt;git remote 
-git remote  --v &lt;/td&gt;
-                                    &lt;/tr&gt;</v>
-      </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="2:8">
       <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8">
       <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="17" spans="9:11">
       <c r="I17" s="4"/>
@@ -1714,7 +2211,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1730,15 +2227,365 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC2EDEF-147B-4A1E-A8EF-185272BAB494}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA192FCC-ECE6-4A91-BE92-8AC40E07C40F}">
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="63.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="60">
+      <c r="B6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="45">
+      <c r="B7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="60">
+      <c r="B8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="30">
+      <c r="B9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="45">
+      <c r="B10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="30">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="30">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" ht="30">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" ht="30">
+      <c r="F17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="6:12">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="6:12">
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="6:12">
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="6:12">
+      <c r="G22" s="24"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92F2DCC-FB77-4F59-BBC9-D8AEF3A9D348}">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="66.85546875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="135">
+      <c r="B3" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="225">
+      <c r="B4" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="225">
+      <c r="B5" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="225">
+      <c r="B6" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="150">
+      <c r="C7" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="240">
+      <c r="B8" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="120">
+      <c r="C9" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="225">
+      <c r="C10" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="150">
+      <c r="C11" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="409.5">
+      <c r="C12" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="409.5">
+      <c r="C13" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/archivos/FullStack.xlsx
+++ b/archivos/FullStack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Diplomado\FullstackDiplomado\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2306B9C-4DED-4293-8A5E-5D53BEA4F02C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2639BD-BF65-4357-81CA-5A76C924F29A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{87DE3053-6E27-4111-95D3-6798F6023CBA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="7" xr2:uid="{87DE3053-6E27-4111-95D3-6798F6023CBA}"/>
   </bookViews>
   <sheets>
     <sheet name="GIT" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="VsCode" sheetId="5" r:id="rId4"/>
     <sheet name="Javascript" sheetId="6" r:id="rId5"/>
     <sheet name="JavaScriptEjemplos" sheetId="7" r:id="rId6"/>
+    <sheet name="JSFuncionesEjemplos" sheetId="8" r:id="rId7"/>
+    <sheet name="Hoja2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="154">
   <si>
     <t>Git clone</t>
   </si>
@@ -766,6 +768,332 @@
 console.log('Herencia de Ana ' , valorHerencia(Ana));
 console.log('Herencia de Luis ' , valorHerencia(Luis));</t>
   </si>
+  <si>
+    <t xml:space="preserve">For </t>
+  </si>
+  <si>
+    <t>While</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Each </t>
+  </si>
+  <si>
+    <t xml:space="preserve">While  N=1 </t>
+  </si>
+  <si>
+    <t>if (time &lt; 10) {
+  greeting = "Good morning";
+} else if (time &lt; 20) {
+  greeting = "Good day";
+} else {
+  greeting = "Good evening";
+}</t>
+  </si>
+  <si>
+    <t>const person = {fname:"John", lname:"Doe", age:25};
+let text = "";
+for (let x in person) {
+  text += person[x];
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+for (var i = 0; i &lt; 9; i++) {
+   n += i;
+   mifuncion(n);
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Let Var= Valor ; Condicion, Manipulable
+</t>
+  </si>
+  <si>
+    <t>function logArrayElements(element, index, array) {
+    console.log("a[" + index + "] = " + element);
+}
+// Nótese que se evita el 2° índice ya que no hay ningún elemento en esa posición del array
+[2, 5, , 9].forEach(logArrayElements);
+// salida:
+// a[0] = 2
+// a[1] = 5
+// a[2] = 9</t>
+  </si>
+  <si>
+    <t>switch (new Date().getDay()) {
+  case 0:
+    day = "Sunday";
+    break;
+  case 1:
+    day = "Monday";
+    break;
+  case 2:
+     day = "Tuesday";
+    break;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">const name =['Natalia Arismendi', 'Sebastian Hoyos', 'Matias Arismendi']
+//for Each
+console.log(name)
+name.forEach((valor,index)=&gt;{
+  console.log(valor,index)
+  })
+</t>
+  </si>
+  <si>
+    <t>//For
+for(let i=0; name.length&gt;i;i++)
+  {
+    console.log(name[i])
+  }</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>FOREACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const  values= [
+  {num1:12,num2:222},
+  {num1:3,num2:11},
+  {num1:33,num2:44},
+  {num1:66,num2:99},
+  {num1:555,num2:885},
+];
+for(let rec=0; rec&lt; values.length;rec++)
+{
+  console.log('Multiplicacion:', values[rec].num1 * values[rec].num2)
+  console.log('Suma:', values[rec].num1 + values[rec].num2)
+  console.log('Division', values[rec].num1 / values[rec].num2)  
+  console.log('Resta', values[rec].num1 - values[rec].num2)
+}
+  values.forEach((valor,index)=&gt;
+{
+  console.log(`Multiplicacion:${valor.num1 * valor.num2}`)
+  console.log('Suma:', valor.num1 + valor.num2)
+  console.log('Division', valor.num1 / valor.num2)  
+  console.log('Resta',valor.num1 - valor.num2)
+})
+</t>
+  </si>
+  <si>
+    <t>For y ForEach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const  values= [
+  {num1:12,num2:222},
+  {num1:3,num2:11},
+  {num1:33,num2:44},
+  {num1:66,num2:99},
+  {num1:555,num2:885},
+];
+for(let rec=0; rec&lt; values.length;rec++)
+{
+  console.log('Multiplicacion:', values[rec].num1 * values[rec].num2)
+  console.log('Suma:', values[rec].num1 + values[rec].num2)
+  console.log('Division', values[rec].num1 / values[rec].num2)  
+  console.log('Resta', values[rec].num1 - values[rec].num2)
+}
+  values.forEach((Numeros ,index)=&gt;
+{
+  console.log(`Multiplicacion:${Numeros.num1 * Numeros.num2}`)
+  console.log('Suma:', Numeros.num1 + Numeros.num2)
+  console.log('Division', Numeros.num1 / Numeros.num2)  
+  console.log('Resta',Numeros.num1 - Numeros.num2)
+})
+</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;
+&lt;head&gt;&lt;/head&gt;
+&lt;body&gt;
+    &lt;label&gt;Ingrese el valor de Num 1&lt;/label&gt;
+    &lt;input id="num1" type="number"&gt;
+    &lt;br&gt;  
+     &lt;br&gt;  
+     &lt;label&gt;Ingrese el valor de Num 2&lt;/label&gt;
+    &lt;input id="num2" type="number"&gt;
+    &lt;br&gt;  
+    &lt;br&gt;  
+    &lt;button type="button" onclick="getSuma()"&gt;
+    Suma
+    &lt;/button&gt;   &lt;button type="button" onclick="getResta()"&gt;
+    Resta
+    &lt;/button&gt; 
+      &lt;button type="button" onclick="getDivision()"&gt;
+    Division
+    &lt;/button&gt;   &lt;button type="button" onclick="getMultiplicacion()"&gt;
+    Multiplicacion
+    &lt;/button&gt; 
+  &lt;p&gt;El valor es &lt;/p&gt; 
+  &lt;p id="resultado"&gt;0 &lt;/p&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML ejercicion 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">function getSuma()
+{
+  let num1= parseInt(document.getElementById('num1').value )
+  //console.log(value)
+  //alert(value)
+  //document.write('hola')
+  let num2=parseInt(document.getElementById('num2').value) 
+  document.getElementById('resultado').textContent= num1 + num2 
+}
+function getResta()
+{
+  let num1= parseInt(document.getElementById('num1').value )
+  //console.log(value)
+  //alert(value)
+  //document.write('hola')
+  let num2=parseInt(document.getElementById('num2').value) 
+  document.getElementById('resultado').textContent= num1 - num2 
+}
+function getMultiplicacion()
+{
+  let num1= parseInt(document.getElementById('num1').value )
+  //console.log(value)
+  //alert(value)
+  //document.write('hola')
+  let num2=parseInt(document.getElementById('num2').value) 
+  document.getElementById('resultado').textContent= num1 * num2 
+}
+function getDivision()
+{
+  let num1= parseInt(document.getElementById('num1').value )
+  //console.log(value)
+  //alert(value)
+  //document.write('hola')
+  let num2=parseInt(document.getElementById('num2').value) 
+  document.getElementById('resultado').textContent= num1 / num2 
+}
+</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>function&lt;html&gt;
+&lt;head&gt;
+    &lt;script src="js/script.js"&gt;&lt;/script&gt;
+    &lt;title&gt;Calculadora&lt;/title&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;div class="calculadora" &lt;form action="#" name="calculadora" id="calculadora"&gt;
+        &lt;h3&gt;CALCULADORA&lt;/h3&gt;
+        &lt;input id="num" type="number"&gt;
+        &lt;label id="op"&gt;+&lt;/label&gt;
+        &lt;br&gt;
+        &lt;br&gt;
+        &lt;input type="button" value="1" onclick="getvalor(this.value)" /&gt;
+        &lt;input type="button" value="2" onclick="getvalor(this.value)" /&gt;
+        &lt;input type="button" value="3" onclick="getvalor(this.value)" /&gt;
+        &lt;input type="button" value="+" onclick="getoperador('+')" /&gt;
+        &lt;/p&gt;
+        &lt;p&gt;
+            &lt;input type="button" value="4" onclick="getvalor(this.value)" /&gt;
+            &lt;input type="button" value="5" onclick="getvalor(this.value)" /&gt;
+            &lt;input type="button" value="6" onclick="getvalor(this.value)" /&gt;
+            &lt;input type="button" value="-" onclick="getoperador('-')" /&gt;
+        &lt;/p&gt;
+        &lt;p&gt;
+            &lt;input type="button" value="7" onclick="getvalor(this.value)" /&gt;
+            &lt;input type="button" value="8" onclick="getvalor(this.value)" /&gt;
+            &lt;input type="button" value="9" onclick="getvalor(this.value)" /&gt;
+            &lt;input type="button" value="*" onclick="getoperador('*')" /&gt;
+        &lt;/p&gt;
+        &lt;p&gt;
+            &lt;input type="button" value="0" onclick="getvalor(this.value)" /&gt;
+            &lt;input type="button" value="=" onclick="getoperador('=')" /&gt;
+            &lt;input type="button" value="/" onclick="getoperador('/')" /&gt;
+                      &lt;input type="button" value="Clear" onclick="Borrar()" /&gt;
+        &lt;/p&gt;
+        &lt;/form&gt;
+    &lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt; getvalor(n)
+{
+  alert(n);
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let valor1 = 0
+let valor2 = 0
+let operador1 = null
+let operador = null
+let resultado = 0
+let validate = true
+function getvalor(n) {
+    document.getElementById('num').value = document.getElementById('num').value + n
+}
+function getoperador(n) {
+    operador = n
+    document.getElementById('op').textContent = n
+    if (validate) {
+        console.log("Entre")
+        valor1 = document.getElementById('num').value
+        operador1 = n
+        valor2 = 0
+      validate = false
+    }else  {
+        valor2 = document.getElementById('num').value
+        operacion(operador1)
+    }
+    validate=false
+    document.getElementById('num').value = ''
+    console.log( valor1, ' ', valor2, ' ', operador)
+}
+function Borrar() {
+    valor1 = 0
+    valor2 = 0
+    operador = null
+    resultado = 0
+    document.getElementById('num').value = ''
+    console.log(valor1, ' ', valor2, ' ', operador);
+}
+function operacion(o) {
+    switch (o) {
+        case '+':
+            resultado = getSuma(valor1, valor2)
+            break;
+        case '-':
+            resultado = getResta(valor1, valor2)
+            break;
+        case '*':
+            resultado = getMultiplicacion(valor1, valor2)
+            break;
+        case '/':
+            resultado = getdivision(valor1, valor2)
+            break;
+    }
+    document.getElementById('num').value = resultado
+    valor1 = 0
+    valor2 = 0
+    console.log(valor1, ' ', valor2)
+}
+function getSuma(num1, num2) {
+    return parseInt(num1) + parseInt(num2)
+}
+function getResta(num1, num2) {
+    return num1 - num2
+}
+function getMultiplicacion(num1, num2) {
+    return num1 * num2
+}
+function getDivision(num1, num2) {
+    return num1 / num2
+}
+</t>
+  </si>
 </sst>
 </file>
 
@@ -774,7 +1102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,6 +1175,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -914,11 +1258,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -975,31 +1320,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1061,6 +1392,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1074,12 +1423,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1449,8 +1799,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CA9946C2-2B09-432F-A628-BBA65A33034D}" name="Tabla27" displayName="Tabla27" ref="F3:H11" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="F3:H11" xr:uid="{A2ACD30B-BA85-42D6-BDC1-DCEB5E840404}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9235585B-A0C1-44BA-988B-3296FEA6B9E6}" name="Tipo de datos" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{9FDD3A51-4E16-47B7-AE9A-4AABB7F5EAE9}" name="Columna1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9235585B-A0C1-44BA-988B-3296FEA6B9E6}" name="Tipo de datos" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9FDD3A51-4E16-47B7-AE9A-4AABB7F5EAE9}" name="Columna1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{E478FDEF-9CC4-4518-9399-30D7AD06CB87}" name="Sintaxis" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1458,12 +1808,12 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{67B1461D-3926-4FB5-A534-15B5A215C103}" name="Tabla278" displayName="Tabla278" ref="F14:H22" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{67B1461D-3926-4FB5-A534-15B5A215C103}" name="Tabla278" displayName="Tabla278" ref="F14:H22" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="F14:H22" xr:uid="{5C8614C4-EB8C-46FA-A2E2-B8A03535F7FC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AEC04DCE-26FD-454B-B35A-CDF8BA9F43D3}" name="Declaracion de Variables"/>
-    <tableColumn id="3" xr3:uid="{30896AF1-F19D-4445-B8C2-23A6409C5963}" name="Detalle" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7DFCFE52-A059-40A9-89B5-B7DD1E209978}" name="Sintaxis" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{30896AF1-F19D-4445-B8C2-23A6409C5963}" name="Detalle" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7DFCFE52-A059-40A9-89B5-B7DD1E209978}" name="Sintaxis" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1473,7 +1823,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{23B99E34-5AC4-4F7D-8DDB-926193D4EF1D}" name="Tabla8" displayName="Tabla8" ref="B2:C5" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:C5" xr:uid="{A63F4868-2871-4789-A2B3-6728D6E1666C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8778A0DF-417D-48B8-9C50-B89EB0809DFF}" name="Columna1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8778A0DF-417D-48B8-9C50-B89EB0809DFF}" name="Columna1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{679E94F3-3523-4304-887E-E929D93F20CF}" name="Columna2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2231,18 +2581,18 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="63.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="49.7109375" style="2" customWidth="1"/>
     <col min="9" max="10" width="11.42578125" style="1"/>
     <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
@@ -2251,7 +2601,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2312,7 +2662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="60">
+    <row r="6" spans="2:9" ht="30">
       <c r="B6" s="5" t="s">
         <v>119</v>
       </c>
@@ -2326,7 +2676,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="45">
+    <row r="7" spans="2:9">
       <c r="B7" s="5" t="s">
         <v>120</v>
       </c>
@@ -2340,7 +2690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="60">
+    <row r="8" spans="2:9" ht="30">
       <c r="B8" s="5" t="s">
         <v>122</v>
       </c>
@@ -2354,12 +2704,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30">
+    <row r="9" spans="2:9" ht="94.5">
       <c r="B9" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1" t="s">
         <v>86</v>
@@ -2368,12 +2722,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="45">
+    <row r="10" spans="2:9" ht="148.5">
       <c r="B10" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>88</v>
@@ -2382,10 +2738,16 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="30">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+    <row r="11" spans="2:9" ht="67.5">
+      <c r="B11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>90</v>
@@ -2395,21 +2757,33 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="8"/>
+    <row r="13" spans="2:9" ht="81">
+      <c r="B13" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="8"/>
+    <row r="14" spans="2:9" ht="135">
+      <c r="B14" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="1" t="s">
         <v>113</v>
@@ -2480,12 +2854,15 @@
       <c r="G22" s="24"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{F1861413-ECDA-45C2-8974-202C52F71D19}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2494,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92F2DCC-FB77-4F59-BBC9-D8AEF3A9D348}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2588,4 +2965,95 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB4F041-DEEE-4DDA-A41A-EB6B0AB99AFD}">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="135">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="390">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="409.5">
+      <c r="B5" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="405">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.5">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422AC9A4-8DE0-4C60-9281-96454A8DFAA6}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="67" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="409.5">
+      <c r="A1" s="27"/>
+      <c r="B1" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>